--- a/insumos/espectaculares.xlsx
+++ b/insumos/espectaculares.xlsx
@@ -866,7 +866,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="_-[$€-2]* #,##0.00_-;\-[$€-2]* #,##0.00_-;_-[$€-2]* &quot;-&quot;??_-"/>
   </numFmts>
-  <fonts count="8" x14ac:knownFonts="1">
+  <fonts count="12" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -909,12 +909,39 @@
       <family val="2"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color theme="0"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <u/>
       <sz val="8"/>
+      <color theme="0"/>
+      <name val="Eurostile"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="8"/>
+      <color theme="0"/>
+      <name val="Eurostile"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="8"/>
+      <color theme="0"/>
       <name val="Arial"/>
       <family val="2"/>
     </font>
   </fonts>
-  <fills count="4">
+  <fills count="5">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -930,6 +957,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="0"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFF0000"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -967,7 +1000,7 @@
     </xf>
     <xf numFmtId="164" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="25">
+  <cellXfs count="35">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="1" applyFont="1" applyFill="1" applyAlignment="1">
@@ -1012,25 +1045,51 @@
     <xf numFmtId="0" fontId="6" fillId="3" borderId="1" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="3" borderId="1" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="6" fillId="3" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="3" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="3" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="3" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="8" fillId="4" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="4" borderId="1" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="4" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="4" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="4" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="4" borderId="0" xfId="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="9" fillId="4" borderId="1" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="4" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="4" borderId="1" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="10" fillId="4" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="4" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="4" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="4" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="4">
     <cellStyle name="Euro" xfId="3"/>
@@ -1337,8 +1396,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:I129"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A62" workbookViewId="0">
-      <selection activeCell="G80" sqref="G80"/>
+    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="G135" sqref="G135"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1368,10 +1427,10 @@
       <c r="G1" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="H1" s="22" t="s">
+      <c r="H1" s="18" t="s">
         <v>7</v>
       </c>
-      <c r="I1" s="22" t="s">
+      <c r="I1" s="18" t="s">
         <v>8</v>
       </c>
     </row>
@@ -1397,10 +1456,10 @@
       <c r="G2" s="8" t="s">
         <v>11</v>
       </c>
-      <c r="H2" s="21">
+      <c r="H2" s="17">
         <v>20.998000000000001</v>
       </c>
-      <c r="I2" s="21">
+      <c r="I2" s="17">
         <v>101.285333333333</v>
       </c>
     </row>
@@ -1455,10 +1514,10 @@
       <c r="G4" s="8" t="s">
         <v>15</v>
       </c>
-      <c r="H4" s="21">
+      <c r="H4" s="17">
         <v>21.0141666666666</v>
       </c>
-      <c r="I4" s="21">
+      <c r="I4" s="17">
         <v>-101.276</v>
       </c>
     </row>
@@ -1484,10 +1543,10 @@
       <c r="G5" s="8" t="s">
         <v>17</v>
       </c>
-      <c r="H5" s="21">
+      <c r="H5" s="17">
         <v>21.010666666666602</v>
       </c>
-      <c r="I5" s="21">
+      <c r="I5" s="17">
         <v>-101.266666666666</v>
       </c>
     </row>
@@ -1513,10 +1572,10 @@
       <c r="G6" s="8" t="s">
         <v>19</v>
       </c>
-      <c r="H6" s="21">
+      <c r="H6" s="17">
         <v>21.010666666666602</v>
       </c>
-      <c r="I6" s="21">
+      <c r="I6" s="17">
         <v>-101.266666666666</v>
       </c>
     </row>
@@ -1542,10 +1601,10 @@
       <c r="G7" s="8" t="s">
         <v>21</v>
       </c>
-      <c r="H7" s="21">
+      <c r="H7" s="17">
         <v>20.984500000000001</v>
       </c>
-      <c r="I7" s="21">
+      <c r="I7" s="17">
         <v>-101.2885</v>
       </c>
     </row>
@@ -1571,10 +1630,10 @@
       <c r="G8" s="8" t="s">
         <v>23</v>
       </c>
-      <c r="H8" s="21">
+      <c r="H8" s="17">
         <v>20.9828333333333</v>
       </c>
-      <c r="I8" s="21">
+      <c r="I8" s="17">
         <v>-101.2895</v>
       </c>
     </row>
@@ -1600,10 +1659,10 @@
       <c r="G9" s="8" t="s">
         <v>26</v>
       </c>
-      <c r="H9" s="21">
+      <c r="H9" s="17">
         <v>20.954333333333299</v>
       </c>
-      <c r="I9" s="21">
+      <c r="I9" s="17">
         <v>-101.4395</v>
       </c>
     </row>
@@ -1629,10 +1688,10 @@
       <c r="G10" s="8" t="s">
         <v>28</v>
       </c>
-      <c r="H10" s="21">
+      <c r="H10" s="17">
         <v>20.946666666666601</v>
       </c>
-      <c r="I10" s="21">
+      <c r="I10" s="17">
         <v>-101.414</v>
       </c>
     </row>
@@ -1658,10 +1717,10 @@
       <c r="G11" s="8" t="s">
         <v>28</v>
       </c>
-      <c r="H11" s="23">
+      <c r="H11" s="19">
         <v>20.946166666666599</v>
       </c>
-      <c r="I11" s="21">
+      <c r="I11" s="17">
         <v>-101.41416666666601</v>
       </c>
     </row>
@@ -1687,10 +1746,10 @@
       <c r="G12" s="8" t="s">
         <v>31</v>
       </c>
-      <c r="H12" s="21">
+      <c r="H12" s="17">
         <v>20.945166666666601</v>
       </c>
-      <c r="I12" s="21">
+      <c r="I12" s="17">
         <v>-101.414</v>
       </c>
     </row>
@@ -1716,10 +1775,10 @@
       <c r="G13" s="8" t="s">
         <v>31</v>
       </c>
-      <c r="H13" s="23">
+      <c r="H13" s="19">
         <v>20.9448333333333</v>
       </c>
-      <c r="I13" s="21">
+      <c r="I13" s="17">
         <v>-101.41416666666601</v>
       </c>
     </row>
@@ -1745,10 +1804,10 @@
       <c r="G14" s="8" t="s">
         <v>34</v>
       </c>
-      <c r="H14" s="21">
+      <c r="H14" s="17">
         <v>20.924333333333301</v>
       </c>
-      <c r="I14" s="21">
+      <c r="I14" s="17">
         <v>-101.451666666666</v>
       </c>
     </row>
@@ -1774,10 +1833,10 @@
       <c r="G15" s="8" t="s">
         <v>36</v>
       </c>
-      <c r="H15" s="21">
+      <c r="H15" s="17">
         <v>20.945499999999999</v>
       </c>
-      <c r="I15" s="21">
+      <c r="I15" s="17">
         <v>-101.4345</v>
       </c>
     </row>
@@ -1803,10 +1862,10 @@
       <c r="G16" s="8" t="s">
         <v>38</v>
       </c>
-      <c r="H16" s="21">
+      <c r="H16" s="17">
         <v>20.944666666666599</v>
       </c>
-      <c r="I16" s="21">
+      <c r="I16" s="17">
         <v>-101.434166666666</v>
       </c>
     </row>
@@ -1832,10 +1891,10 @@
       <c r="G17" s="8" t="s">
         <v>41</v>
       </c>
-      <c r="H17" s="21">
+      <c r="H17" s="17">
         <v>21.140833333333301</v>
       </c>
-      <c r="I17" s="21">
+      <c r="I17" s="17">
         <v>-101.683333333333</v>
       </c>
     </row>
@@ -1861,10 +1920,10 @@
       <c r="G18" s="9" t="s">
         <v>43</v>
       </c>
-      <c r="H18" s="21">
+      <c r="H18" s="17">
         <v>21.149833333333302</v>
       </c>
-      <c r="I18" s="21">
+      <c r="I18" s="17">
         <v>-101.664</v>
       </c>
     </row>
@@ -1890,10 +1949,10 @@
       <c r="G19" s="8" t="s">
         <v>43</v>
       </c>
-      <c r="H19" s="21">
+      <c r="H19" s="17">
         <v>21.1503333333333</v>
       </c>
-      <c r="I19" s="21">
+      <c r="I19" s="17">
         <v>-101.665833333333</v>
       </c>
     </row>
@@ -1919,10 +1978,10 @@
       <c r="G20" s="8" t="s">
         <v>46</v>
       </c>
-      <c r="H20" s="21">
+      <c r="H20" s="17">
         <v>21.146666666666601</v>
       </c>
-      <c r="I20" s="21">
+      <c r="I20" s="17">
         <v>-101.634333333333</v>
       </c>
     </row>
@@ -1948,10 +2007,10 @@
       <c r="G21" s="8" t="s">
         <v>48</v>
       </c>
-      <c r="H21" s="21">
+      <c r="H21" s="17">
         <v>21.0148333333333</v>
       </c>
-      <c r="I21" s="21">
+      <c r="I21" s="17">
         <v>-101.27549999999999</v>
       </c>
     </row>
@@ -1977,10 +2036,10 @@
       <c r="G22" s="8" t="s">
         <v>50</v>
       </c>
-      <c r="H22" s="21">
+      <c r="H22" s="17">
         <v>21.080666666666598</v>
       </c>
-      <c r="I22" s="21">
+      <c r="I22" s="17">
         <v>-101.60850000000001</v>
       </c>
     </row>
@@ -2006,10 +2065,10 @@
       <c r="G23" s="8" t="s">
         <v>52</v>
       </c>
-      <c r="H23" s="21">
+      <c r="H23" s="17">
         <v>21.094999999999999</v>
       </c>
-      <c r="I23" s="21">
+      <c r="I23" s="17">
         <v>-101.626833333333</v>
       </c>
     </row>
@@ -2035,137 +2094,137 @@
       <c r="G24" s="9" t="s">
         <v>54</v>
       </c>
-      <c r="H24" s="21">
+      <c r="H24" s="17">
         <v>21.096</v>
       </c>
-      <c r="I24" s="21">
+      <c r="I24" s="17">
         <v>-101.628166666666</v>
       </c>
     </row>
     <row r="25" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A25" s="4">
+      <c r="A25" s="21">
         <v>24</v>
       </c>
-      <c r="B25" s="5" t="s">
+      <c r="B25" s="22" t="s">
         <v>55</v>
       </c>
-      <c r="C25" s="5">
+      <c r="C25" s="22">
         <v>40</v>
       </c>
-      <c r="D25" s="12" t="s">
+      <c r="D25" s="23" t="s">
         <v>40</v>
       </c>
-      <c r="E25" s="13">
-        <v>10</v>
-      </c>
-      <c r="F25" s="13">
-        <v>3.05</v>
-      </c>
-      <c r="G25" s="9" t="s">
+      <c r="E25" s="24">
+        <v>10</v>
+      </c>
+      <c r="F25" s="24">
+        <v>3.05</v>
+      </c>
+      <c r="G25" s="25" t="s">
         <v>56</v>
       </c>
-      <c r="H25" s="1"/>
-      <c r="I25" s="1"/>
+      <c r="H25" s="26"/>
+      <c r="I25" s="26"/>
     </row>
     <row r="26" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A26" s="4">
+      <c r="A26" s="21">
         <v>25</v>
       </c>
-      <c r="B26" s="5" t="s">
+      <c r="B26" s="22" t="s">
         <v>57</v>
       </c>
-      <c r="C26" s="5">
+      <c r="C26" s="22">
         <v>40</v>
       </c>
-      <c r="D26" s="6" t="s">
+      <c r="D26" s="23" t="s">
         <v>40</v>
       </c>
-      <c r="E26" s="7">
-        <v>10</v>
-      </c>
-      <c r="F26" s="7">
-        <v>3.05</v>
-      </c>
-      <c r="G26" s="8" t="s">
+      <c r="E26" s="24">
+        <v>10</v>
+      </c>
+      <c r="F26" s="24">
+        <v>3.05</v>
+      </c>
+      <c r="G26" s="25" t="s">
         <v>56</v>
       </c>
-      <c r="H26" s="1"/>
-      <c r="I26" s="1"/>
+      <c r="H26" s="26"/>
+      <c r="I26" s="26"/>
     </row>
     <row r="27" spans="1:9" ht="43.5" x14ac:dyDescent="0.25">
-      <c r="A27" s="4">
+      <c r="A27" s="21">
         <v>26</v>
       </c>
-      <c r="B27" s="10" t="s">
+      <c r="B27" s="27" t="s">
         <v>58</v>
       </c>
-      <c r="C27" s="5">
+      <c r="C27" s="22">
         <v>40</v>
       </c>
-      <c r="D27" s="6" t="s">
+      <c r="D27" s="23" t="s">
         <v>40</v>
       </c>
-      <c r="E27" s="7">
-        <v>10</v>
-      </c>
-      <c r="F27" s="7">
-        <v>3.05</v>
-      </c>
-      <c r="G27" s="8" t="s">
+      <c r="E27" s="24">
+        <v>10</v>
+      </c>
+      <c r="F27" s="24">
+        <v>3.05</v>
+      </c>
+      <c r="G27" s="25" t="s">
         <v>59</v>
       </c>
-      <c r="H27" s="1"/>
-      <c r="I27" s="1"/>
+      <c r="H27" s="26"/>
+      <c r="I27" s="26"/>
     </row>
     <row r="28" spans="1:9" ht="22.5" x14ac:dyDescent="0.25">
-      <c r="A28" s="4">
+      <c r="A28" s="21">
         <v>27</v>
       </c>
-      <c r="B28" s="5" t="s">
+      <c r="B28" s="22" t="s">
         <v>60</v>
       </c>
-      <c r="C28" s="5">
+      <c r="C28" s="22">
         <v>43</v>
       </c>
-      <c r="D28" s="6" t="s">
+      <c r="D28" s="23" t="s">
         <v>61</v>
       </c>
-      <c r="E28" s="7">
-        <v>10</v>
-      </c>
-      <c r="F28" s="7">
-        <v>3.05</v>
-      </c>
-      <c r="G28" s="8" t="s">
+      <c r="E28" s="24">
+        <v>10</v>
+      </c>
+      <c r="F28" s="24">
+        <v>3.05</v>
+      </c>
+      <c r="G28" s="25" t="s">
         <v>62</v>
       </c>
-      <c r="H28" s="1"/>
-      <c r="I28" s="1"/>
+      <c r="H28" s="26"/>
+      <c r="I28" s="26"/>
     </row>
     <row r="29" spans="1:9" ht="22.5" x14ac:dyDescent="0.25">
-      <c r="A29" s="4">
+      <c r="A29" s="21">
         <v>28</v>
       </c>
-      <c r="B29" s="5" t="s">
+      <c r="B29" s="22" t="s">
         <v>63</v>
       </c>
-      <c r="C29" s="5">
+      <c r="C29" s="22">
         <v>43</v>
       </c>
-      <c r="D29" s="6" t="s">
+      <c r="D29" s="23" t="s">
         <v>61</v>
       </c>
-      <c r="E29" s="7">
-        <v>10</v>
-      </c>
-      <c r="F29" s="7">
-        <v>3.05</v>
-      </c>
-      <c r="G29" s="8" t="s">
+      <c r="E29" s="24">
+        <v>10</v>
+      </c>
+      <c r="F29" s="24">
+        <v>3.05</v>
+      </c>
+      <c r="G29" s="25" t="s">
         <v>64</v>
       </c>
-      <c r="H29" s="1"/>
-      <c r="I29" s="1"/>
+      <c r="H29" s="26"/>
+      <c r="I29" s="26"/>
     </row>
     <row r="30" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A30" s="4">
@@ -2189,10 +2248,10 @@
       <c r="G30" s="8" t="s">
         <v>67</v>
       </c>
-      <c r="H30" s="21">
+      <c r="H30" s="17">
         <v>20.806000000000001</v>
       </c>
-      <c r="I30" s="21">
+      <c r="I30" s="17">
         <v>-101.323333333333</v>
       </c>
     </row>
@@ -2218,10 +2277,10 @@
       <c r="G31" s="8" t="s">
         <v>67</v>
       </c>
-      <c r="H31" s="21">
+      <c r="H31" s="17">
         <v>20.809333333333299</v>
       </c>
-      <c r="I31" s="21">
+      <c r="I31" s="17">
         <v>-101.32250000000001</v>
       </c>
     </row>
@@ -2247,10 +2306,10 @@
       <c r="G32" s="8" t="s">
         <v>70</v>
       </c>
-      <c r="H32" s="21">
+      <c r="H32" s="17">
         <v>20.663499999999999</v>
       </c>
-      <c r="I32" s="21">
+      <c r="I32" s="17">
         <v>-101.34050000000001</v>
       </c>
     </row>
@@ -2276,10 +2335,10 @@
       <c r="G33" s="8" t="s">
         <v>70</v>
       </c>
-      <c r="H33" s="21">
+      <c r="H33" s="17">
         <v>20.664166666666599</v>
       </c>
-      <c r="I33" s="21">
+      <c r="I33" s="17">
         <v>-101.34050000000001</v>
       </c>
     </row>
@@ -2305,10 +2364,10 @@
       <c r="G34" s="8" t="s">
         <v>74</v>
       </c>
-      <c r="H34" s="21">
+      <c r="H34" s="17">
         <v>20.590499999999999</v>
       </c>
-      <c r="I34" s="21">
+      <c r="I34" s="17">
         <v>-101.230666666666</v>
       </c>
     </row>
@@ -2334,10 +2393,10 @@
       <c r="G35" s="8" t="s">
         <v>76</v>
       </c>
-      <c r="H35" s="21">
+      <c r="H35" s="17">
         <v>20.590499999999999</v>
       </c>
-      <c r="I35" s="21">
+      <c r="I35" s="17">
         <v>-101.230666666666</v>
       </c>
     </row>
@@ -2363,162 +2422,162 @@
       <c r="G36" s="8" t="s">
         <v>78</v>
       </c>
-      <c r="H36" s="21">
+      <c r="H36" s="17">
         <v>20.590499999999999</v>
       </c>
-      <c r="I36" s="21">
+      <c r="I36" s="17">
         <v>-101.230666666666</v>
       </c>
     </row>
     <row r="37" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A37" s="4">
+      <c r="A37" s="21">
         <v>36</v>
       </c>
-      <c r="B37" s="5" t="s">
+      <c r="B37" s="22" t="s">
         <v>79</v>
       </c>
-      <c r="C37" s="5">
+      <c r="C37" s="22">
         <v>46</v>
       </c>
-      <c r="D37" s="6" t="s">
+      <c r="D37" s="23" t="s">
         <v>80</v>
       </c>
-      <c r="E37" s="7">
-        <v>10</v>
-      </c>
-      <c r="F37" s="7">
-        <v>3.05</v>
-      </c>
-      <c r="G37" s="8" t="s">
+      <c r="E37" s="24">
+        <v>10</v>
+      </c>
+      <c r="F37" s="24">
+        <v>3.05</v>
+      </c>
+      <c r="G37" s="25" t="s">
         <v>81</v>
       </c>
-      <c r="H37" s="1"/>
-      <c r="I37" s="1"/>
+      <c r="H37" s="26"/>
+      <c r="I37" s="26"/>
     </row>
     <row r="38" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A38" s="4">
+      <c r="A38" s="21">
         <v>37</v>
       </c>
-      <c r="B38" s="5" t="s">
+      <c r="B38" s="22" t="s">
         <v>82</v>
       </c>
-      <c r="C38" s="5">
+      <c r="C38" s="22">
         <v>46</v>
       </c>
-      <c r="D38" s="6" t="s">
+      <c r="D38" s="23" t="s">
         <v>80</v>
       </c>
-      <c r="E38" s="7">
-        <v>10</v>
-      </c>
-      <c r="F38" s="7">
+      <c r="E38" s="24">
+        <v>10</v>
+      </c>
+      <c r="F38" s="24">
         <v>3.5</v>
       </c>
-      <c r="G38" s="8" t="s">
+      <c r="G38" s="25" t="s">
         <v>83</v>
       </c>
-      <c r="H38" s="1"/>
-      <c r="I38" s="1"/>
+      <c r="H38" s="26"/>
+      <c r="I38" s="26"/>
     </row>
     <row r="39" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A39" s="4">
+      <c r="A39" s="21">
         <v>38</v>
       </c>
-      <c r="B39" s="5" t="s">
+      <c r="B39" s="22" t="s">
         <v>84</v>
       </c>
-      <c r="C39" s="5">
+      <c r="C39" s="22">
         <v>46</v>
       </c>
-      <c r="D39" s="6" t="s">
+      <c r="D39" s="23" t="s">
         <v>80</v>
       </c>
-      <c r="E39" s="7">
-        <v>10</v>
-      </c>
-      <c r="F39" s="7">
-        <v>3.05</v>
-      </c>
-      <c r="G39" s="8" t="s">
+      <c r="E39" s="24">
+        <v>10</v>
+      </c>
+      <c r="F39" s="24">
+        <v>3.05</v>
+      </c>
+      <c r="G39" s="25" t="s">
         <v>83</v>
       </c>
-      <c r="H39" s="1"/>
-      <c r="I39" s="1"/>
+      <c r="H39" s="26"/>
+      <c r="I39" s="26"/>
     </row>
     <row r="40" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A40" s="4">
+      <c r="A40" s="21">
         <v>39</v>
       </c>
-      <c r="B40" s="5" t="s">
+      <c r="B40" s="22" t="s">
         <v>85</v>
       </c>
-      <c r="C40" s="5">
+      <c r="C40" s="22">
         <v>46</v>
       </c>
-      <c r="D40" s="6" t="s">
+      <c r="D40" s="23" t="s">
         <v>80</v>
       </c>
-      <c r="E40" s="7">
-        <v>10</v>
-      </c>
-      <c r="F40" s="7">
+      <c r="E40" s="24">
+        <v>10</v>
+      </c>
+      <c r="F40" s="24">
         <v>3.5</v>
       </c>
-      <c r="G40" s="8" t="s">
+      <c r="G40" s="25" t="s">
         <v>86</v>
       </c>
-      <c r="H40" s="1"/>
-      <c r="I40" s="1"/>
+      <c r="H40" s="26"/>
+      <c r="I40" s="26"/>
     </row>
     <row r="41" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A41" s="4">
+      <c r="A41" s="21">
         <v>40</v>
       </c>
-      <c r="B41" s="5" t="s">
+      <c r="B41" s="22" t="s">
         <v>87</v>
       </c>
-      <c r="C41" s="5">
+      <c r="C41" s="22">
         <v>46</v>
       </c>
-      <c r="D41" s="6" t="s">
+      <c r="D41" s="23" t="s">
         <v>80</v>
       </c>
-      <c r="E41" s="7">
+      <c r="E41" s="24">
         <v>12.1</v>
       </c>
-      <c r="F41" s="7">
+      <c r="F41" s="24">
         <v>7</v>
       </c>
-      <c r="G41" s="8" t="s">
+      <c r="G41" s="25" t="s">
         <v>88</v>
       </c>
-      <c r="H41" s="1"/>
-      <c r="I41" s="1"/>
+      <c r="H41" s="26"/>
+      <c r="I41" s="26"/>
     </row>
     <row r="42" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A42" s="4">
+      <c r="A42" s="21">
         <v>41</v>
       </c>
-      <c r="B42" s="5" t="s">
+      <c r="B42" s="22" t="s">
         <v>89</v>
       </c>
-      <c r="C42" s="5">
+      <c r="C42" s="22">
         <v>46</v>
       </c>
-      <c r="D42" s="6" t="s">
+      <c r="D42" s="23" t="s">
         <v>80</v>
       </c>
-      <c r="E42" s="7">
+      <c r="E42" s="24">
         <v>12.1</v>
       </c>
-      <c r="F42" s="7">
+      <c r="F42" s="24">
         <v>7</v>
       </c>
-      <c r="G42" s="8" t="s">
+      <c r="G42" s="25" t="s">
         <v>88</v>
       </c>
-      <c r="H42" s="1"/>
-      <c r="I42" s="1"/>
+      <c r="H42" s="26"/>
+      <c r="I42" s="26"/>
     </row>
     <row r="43" spans="1:9" ht="22.5" x14ac:dyDescent="0.25">
       <c r="A43" s="4">
@@ -2542,62 +2601,62 @@
       <c r="G43" s="8" t="s">
         <v>92</v>
       </c>
-      <c r="H43" s="21">
+      <c r="H43" s="17">
         <v>21.153833333333299</v>
       </c>
-      <c r="I43" s="21">
+      <c r="I43" s="17">
         <v>-100.943833333333</v>
       </c>
     </row>
     <row r="44" spans="1:9" ht="22.5" x14ac:dyDescent="0.25">
-      <c r="A44" s="4">
+      <c r="A44" s="21">
         <v>43</v>
       </c>
-      <c r="B44" s="10" t="s">
+      <c r="B44" s="27" t="s">
         <v>93</v>
       </c>
-      <c r="C44" s="10">
+      <c r="C44" s="27">
         <v>47</v>
       </c>
-      <c r="D44" s="6" t="s">
+      <c r="D44" s="23" t="s">
         <v>91</v>
       </c>
-      <c r="E44" s="7">
+      <c r="E44" s="24">
         <v>12.75</v>
       </c>
-      <c r="F44" s="7">
+      <c r="F44" s="24">
         <v>3.6</v>
       </c>
-      <c r="G44" s="8" t="s">
+      <c r="G44" s="25" t="s">
         <v>94</v>
       </c>
-      <c r="H44" s="1"/>
-      <c r="I44" s="1"/>
+      <c r="H44" s="26"/>
+      <c r="I44" s="26"/>
     </row>
     <row r="45" spans="1:9" ht="22.5" x14ac:dyDescent="0.25">
-      <c r="A45" s="4">
+      <c r="A45" s="21">
         <v>44</v>
       </c>
-      <c r="B45" s="14" t="s">
+      <c r="B45" s="28" t="s">
         <v>95</v>
       </c>
-      <c r="C45" s="14">
+      <c r="C45" s="28">
         <v>47</v>
       </c>
-      <c r="D45" s="6" t="s">
+      <c r="D45" s="23" t="s">
         <v>91</v>
       </c>
-      <c r="E45" s="7">
+      <c r="E45" s="24">
         <v>12.75</v>
       </c>
-      <c r="F45" s="7">
+      <c r="F45" s="24">
         <v>3.6</v>
       </c>
-      <c r="G45" s="8" t="s">
+      <c r="G45" s="25" t="s">
         <v>96</v>
       </c>
-      <c r="H45" s="1"/>
-      <c r="I45" s="1"/>
+      <c r="H45" s="26"/>
+      <c r="I45" s="26"/>
     </row>
     <row r="46" spans="1:9" ht="22.5" x14ac:dyDescent="0.25">
       <c r="A46" s="4">
@@ -2621,10 +2680,10 @@
       <c r="G46" s="9" t="s">
         <v>99</v>
       </c>
-      <c r="H46" s="21">
+      <c r="H46" s="17">
         <v>21.453666666666599</v>
       </c>
-      <c r="I46" s="21">
+      <c r="I46" s="17">
         <v>-100.8685</v>
       </c>
     </row>
@@ -2650,10 +2709,10 @@
       <c r="G47" s="8" t="s">
         <v>101</v>
       </c>
-      <c r="H47" s="21">
+      <c r="H47" s="17">
         <v>21.454333333333299</v>
       </c>
-      <c r="I47" s="21">
+      <c r="I47" s="17">
         <v>-100.8685</v>
       </c>
     </row>
@@ -2679,10 +2738,10 @@
       <c r="G48" s="8" t="s">
         <v>104</v>
       </c>
-      <c r="H48" s="21">
+      <c r="H48" s="17">
         <v>21.296166666666601</v>
       </c>
-      <c r="I48" s="21">
+      <c r="I48" s="17">
         <v>-100.061833333333</v>
       </c>
     </row>
@@ -2708,10 +2767,10 @@
       <c r="G49" s="8" t="s">
         <v>106</v>
       </c>
-      <c r="H49" s="21">
+      <c r="H49" s="17">
         <v>21.2753333333333</v>
       </c>
-      <c r="I49" s="21">
+      <c r="I49" s="17">
         <v>-100.55783333333299</v>
       </c>
     </row>
@@ -2737,10 +2796,10 @@
       <c r="G50" s="8" t="s">
         <v>109</v>
       </c>
-      <c r="H50" s="21">
+      <c r="H50" s="17">
         <v>21.23</v>
       </c>
-      <c r="I50" s="21">
+      <c r="I50" s="17">
         <v>-100.253166666666</v>
       </c>
     </row>
@@ -2766,10 +2825,10 @@
       <c r="G51" s="8" t="s">
         <v>109</v>
       </c>
-      <c r="H51" s="21">
+      <c r="H51" s="17">
         <v>21.228999999999999</v>
       </c>
-      <c r="I51" s="21">
+      <c r="I51" s="17">
         <v>-100.252666666666</v>
       </c>
     </row>
@@ -2795,10 +2854,10 @@
       <c r="G52" s="8" t="s">
         <v>113</v>
       </c>
-      <c r="H52" s="21">
+      <c r="H52" s="17">
         <v>21.140166666666602</v>
       </c>
-      <c r="I52" s="21">
+      <c r="I52" s="17">
         <v>-100.0735</v>
       </c>
     </row>
@@ -2824,10 +2883,10 @@
       <c r="G53" s="8" t="s">
         <v>113</v>
       </c>
-      <c r="H53" s="21">
+      <c r="H53" s="17">
         <v>21.1398333333333</v>
       </c>
-      <c r="I53" s="21">
+      <c r="I53" s="17">
         <v>-100.07299999999999</v>
       </c>
     </row>
@@ -2853,10 +2912,10 @@
       <c r="G54" s="8" t="s">
         <v>117</v>
       </c>
-      <c r="H54" s="21">
+      <c r="H54" s="17">
         <v>21.11</v>
       </c>
-      <c r="I54" s="21">
+      <c r="I54" s="17">
         <v>-100.157666666666</v>
       </c>
     </row>
@@ -2882,10 +2941,10 @@
       <c r="G55" s="8" t="s">
         <v>117</v>
       </c>
-      <c r="H55" s="21">
+      <c r="H55" s="17">
         <v>21.120999999999999</v>
       </c>
-      <c r="I55" s="21">
+      <c r="I55" s="17">
         <v>-100.154</v>
       </c>
     </row>
@@ -2911,10 +2970,10 @@
       <c r="G56" s="8" t="s">
         <v>121</v>
       </c>
-      <c r="H56" s="21">
+      <c r="H56" s="17">
         <v>21.140999999999998</v>
       </c>
-      <c r="I56" s="21">
+      <c r="I56" s="17">
         <v>-100.32599999999999</v>
       </c>
     </row>
@@ -2940,87 +2999,87 @@
       <c r="G57" s="8" t="s">
         <v>121</v>
       </c>
-      <c r="H57" s="21">
+      <c r="H57" s="17">
         <v>21.1413333333333</v>
       </c>
-      <c r="I57" s="21">
+      <c r="I57" s="17">
         <v>-100.32533333333301</v>
       </c>
     </row>
     <row r="58" spans="1:9" ht="22.5" x14ac:dyDescent="0.25">
-      <c r="A58" s="4">
+      <c r="A58" s="21">
         <v>57</v>
       </c>
-      <c r="B58" s="10" t="s">
+      <c r="B58" s="27" t="s">
         <v>123</v>
       </c>
-      <c r="C58" s="10">
+      <c r="C58" s="27">
         <v>54</v>
       </c>
-      <c r="D58" s="6" t="s">
+      <c r="D58" s="23" t="s">
         <v>124</v>
       </c>
-      <c r="E58" s="7">
-        <v>10</v>
-      </c>
-      <c r="F58" s="7">
-        <v>3.05</v>
-      </c>
-      <c r="G58" s="8" t="s">
+      <c r="E58" s="24">
+        <v>10</v>
+      </c>
+      <c r="F58" s="24">
+        <v>3.05</v>
+      </c>
+      <c r="G58" s="25" t="s">
         <v>125</v>
       </c>
-      <c r="H58" s="1"/>
-      <c r="I58" s="1"/>
+      <c r="H58" s="26"/>
+      <c r="I58" s="26"/>
     </row>
     <row r="59" spans="1:9" ht="22.5" x14ac:dyDescent="0.25">
-      <c r="A59" s="4">
+      <c r="A59" s="21">
         <v>58</v>
       </c>
-      <c r="B59" s="10" t="s">
+      <c r="B59" s="27" t="s">
         <v>126</v>
       </c>
-      <c r="C59" s="10">
+      <c r="C59" s="27">
         <v>54</v>
       </c>
-      <c r="D59" s="6" t="s">
+      <c r="D59" s="23" t="s">
         <v>124</v>
       </c>
-      <c r="E59" s="7">
-        <v>10</v>
-      </c>
-      <c r="F59" s="7">
-        <v>3.05</v>
-      </c>
-      <c r="G59" s="8" t="s">
+      <c r="E59" s="24">
+        <v>10</v>
+      </c>
+      <c r="F59" s="24">
+        <v>3.05</v>
+      </c>
+      <c r="G59" s="25" t="s">
         <v>125</v>
       </c>
-      <c r="H59" s="1"/>
-      <c r="I59" s="1"/>
+      <c r="H59" s="26"/>
+      <c r="I59" s="26"/>
     </row>
     <row r="60" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A60" s="4">
+      <c r="A60" s="21">
         <v>59</v>
       </c>
-      <c r="B60" s="5" t="s">
+      <c r="B60" s="22" t="s">
         <v>127</v>
       </c>
-      <c r="C60" s="5">
+      <c r="C60" s="22">
         <v>55</v>
       </c>
-      <c r="D60" s="6" t="s">
+      <c r="D60" s="23" t="s">
         <v>128</v>
       </c>
-      <c r="E60" s="7">
+      <c r="E60" s="24">
         <v>12.83</v>
       </c>
-      <c r="F60" s="7">
+      <c r="F60" s="24">
         <v>3.65</v>
       </c>
-      <c r="G60" s="8" t="s">
+      <c r="G60" s="25" t="s">
         <v>129</v>
       </c>
-      <c r="H60" s="1"/>
-      <c r="I60" s="1"/>
+      <c r="H60" s="26"/>
+      <c r="I60" s="26"/>
     </row>
     <row r="61" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A61" s="4">
@@ -3044,10 +3103,10 @@
       <c r="G61" s="8" t="s">
         <v>131</v>
       </c>
-      <c r="H61" s="21">
+      <c r="H61" s="17">
         <v>21.169499999999999</v>
       </c>
-      <c r="I61" s="21">
+      <c r="I61" s="17">
         <v>-100.022833333333</v>
       </c>
     </row>
@@ -3073,162 +3132,162 @@
       <c r="G62" s="8" t="s">
         <v>134</v>
       </c>
-      <c r="H62" s="21">
+      <c r="H62" s="17">
         <v>21.256833333333301</v>
       </c>
-      <c r="I62" s="21">
+      <c r="I62" s="17">
         <v>-99.778999999999996</v>
       </c>
     </row>
     <row r="63" spans="1:9" ht="22.5" x14ac:dyDescent="0.25">
-      <c r="A63" s="4">
+      <c r="A63" s="21">
         <v>62</v>
       </c>
-      <c r="B63" s="16" t="s">
+      <c r="B63" s="29" t="s">
         <v>135</v>
       </c>
-      <c r="C63" s="16">
+      <c r="C63" s="29">
         <v>56</v>
       </c>
-      <c r="D63" s="6" t="s">
+      <c r="D63" s="23" t="s">
         <v>133</v>
       </c>
-      <c r="E63" s="7">
-        <v>10</v>
-      </c>
-      <c r="F63" s="7">
+      <c r="E63" s="24">
+        <v>10</v>
+      </c>
+      <c r="F63" s="24">
         <v>3.5</v>
       </c>
-      <c r="G63" s="8" t="s">
+      <c r="G63" s="25" t="s">
         <v>136</v>
       </c>
-      <c r="H63" s="1"/>
-      <c r="I63" s="1"/>
+      <c r="H63" s="26"/>
+      <c r="I63" s="26"/>
     </row>
     <row r="64" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A64" s="4">
+      <c r="A64" s="21">
         <v>63</v>
       </c>
-      <c r="B64" s="5" t="s">
+      <c r="B64" s="22" t="s">
         <v>137</v>
       </c>
-      <c r="C64" s="5">
+      <c r="C64" s="22">
         <v>57</v>
       </c>
-      <c r="D64" s="6" t="s">
+      <c r="D64" s="23" t="s">
         <v>138</v>
       </c>
-      <c r="E64" s="7">
+      <c r="E64" s="24">
         <v>12.7</v>
       </c>
-      <c r="F64" s="7">
+      <c r="F64" s="24">
         <v>3.65</v>
       </c>
-      <c r="G64" s="8" t="s">
+      <c r="G64" s="25" t="s">
         <v>139</v>
       </c>
-      <c r="H64" s="1"/>
-      <c r="I64" s="1"/>
+      <c r="H64" s="26"/>
+      <c r="I64" s="26"/>
     </row>
     <row r="65" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A65" s="4">
+      <c r="A65" s="21">
         <v>64</v>
       </c>
-      <c r="B65" s="5" t="s">
+      <c r="B65" s="22" t="s">
         <v>140</v>
       </c>
-      <c r="C65" s="5">
+      <c r="C65" s="22">
         <v>57</v>
       </c>
-      <c r="D65" s="6" t="s">
+      <c r="D65" s="23" t="s">
         <v>138</v>
       </c>
-      <c r="E65" s="7">
-        <v>10</v>
-      </c>
-      <c r="F65" s="7">
-        <v>3.05</v>
-      </c>
-      <c r="G65" s="8" t="s">
+      <c r="E65" s="24">
+        <v>10</v>
+      </c>
+      <c r="F65" s="24">
+        <v>3.05</v>
+      </c>
+      <c r="G65" s="25" t="s">
         <v>141</v>
       </c>
-      <c r="H65" s="1"/>
-      <c r="I65" s="1"/>
+      <c r="H65" s="26"/>
+      <c r="I65" s="26"/>
     </row>
     <row r="66" spans="1:9" ht="22.5" x14ac:dyDescent="0.25">
-      <c r="A66" s="4">
+      <c r="A66" s="21">
         <v>65</v>
       </c>
-      <c r="B66" s="5" t="s">
+      <c r="B66" s="22" t="s">
         <v>142</v>
       </c>
-      <c r="C66" s="5">
+      <c r="C66" s="22">
         <v>58</v>
       </c>
-      <c r="D66" s="6" t="s">
+      <c r="D66" s="23" t="s">
         <v>143</v>
       </c>
-      <c r="E66" s="7">
+      <c r="E66" s="24">
         <v>12.7</v>
       </c>
-      <c r="F66" s="7">
+      <c r="F66" s="24">
         <v>3.65</v>
       </c>
-      <c r="G66" s="8" t="s">
+      <c r="G66" s="25" t="s">
         <v>144</v>
       </c>
-      <c r="H66" s="1"/>
-      <c r="I66" s="1"/>
+      <c r="H66" s="26"/>
+      <c r="I66" s="26"/>
     </row>
     <row r="67" spans="1:9" ht="22.5" x14ac:dyDescent="0.25">
-      <c r="A67" s="4">
+      <c r="A67" s="21">
         <v>66</v>
       </c>
-      <c r="B67" s="5" t="s">
+      <c r="B67" s="22" t="s">
         <v>145</v>
       </c>
-      <c r="C67" s="5">
+      <c r="C67" s="22">
         <v>58</v>
       </c>
-      <c r="D67" s="6" t="s">
+      <c r="D67" s="23" t="s">
         <v>143</v>
       </c>
-      <c r="E67" s="7">
-        <v>10</v>
-      </c>
-      <c r="F67" s="7">
-        <v>3.05</v>
-      </c>
-      <c r="G67" s="8" t="s">
+      <c r="E67" s="24">
+        <v>10</v>
+      </c>
+      <c r="F67" s="24">
+        <v>3.05</v>
+      </c>
+      <c r="G67" s="25" t="s">
         <v>146</v>
       </c>
-      <c r="H67" s="1"/>
-      <c r="I67" s="1"/>
+      <c r="H67" s="26"/>
+      <c r="I67" s="26"/>
     </row>
     <row r="68" spans="1:9" ht="22.5" x14ac:dyDescent="0.25">
-      <c r="A68" s="4">
+      <c r="A68" s="21">
         <v>67</v>
       </c>
-      <c r="B68" s="5" t="s">
+      <c r="B68" s="22" t="s">
         <v>147</v>
       </c>
-      <c r="C68" s="5">
+      <c r="C68" s="22">
         <v>58</v>
       </c>
-      <c r="D68" s="6" t="s">
+      <c r="D68" s="23" t="s">
         <v>143</v>
       </c>
-      <c r="E68" s="7">
-        <v>10</v>
-      </c>
-      <c r="F68" s="7">
-        <v>3.05</v>
-      </c>
-      <c r="G68" s="8" t="s">
+      <c r="E68" s="24">
+        <v>10</v>
+      </c>
+      <c r="F68" s="24">
+        <v>3.05</v>
+      </c>
+      <c r="G68" s="25" t="s">
         <v>146</v>
       </c>
-      <c r="H68" s="1"/>
-      <c r="I68" s="1"/>
+      <c r="H68" s="26"/>
+      <c r="I68" s="26"/>
     </row>
     <row r="69" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A69" s="4">
@@ -3252,10 +3311,10 @@
       <c r="G69" s="8" t="s">
         <v>150</v>
       </c>
-      <c r="H69" s="21">
+      <c r="H69" s="17">
         <v>20.1948333333333</v>
       </c>
-      <c r="I69" s="21">
+      <c r="I69" s="17">
         <v>-100.374166666666</v>
       </c>
     </row>
@@ -3281,62 +3340,62 @@
       <c r="G70" s="8" t="s">
         <v>150</v>
       </c>
-      <c r="H70" s="21">
+      <c r="H70" s="17">
         <v>20.195</v>
       </c>
-      <c r="I70" s="21">
+      <c r="I70" s="17">
         <v>-100.373666666666</v>
       </c>
     </row>
     <row r="71" spans="1:9" ht="22.5" x14ac:dyDescent="0.25">
-      <c r="A71" s="4">
+      <c r="A71" s="21">
         <v>70</v>
       </c>
-      <c r="B71" s="5" t="s">
+      <c r="B71" s="22" t="s">
         <v>152</v>
       </c>
-      <c r="C71" s="5">
+      <c r="C71" s="22">
         <v>60</v>
       </c>
-      <c r="D71" s="6" t="s">
+      <c r="D71" s="23" t="s">
         <v>153</v>
       </c>
-      <c r="E71" s="7">
-        <v>10</v>
-      </c>
-      <c r="F71" s="7">
-        <v>3.05</v>
-      </c>
-      <c r="G71" s="8" t="s">
+      <c r="E71" s="24">
+        <v>10</v>
+      </c>
+      <c r="F71" s="24">
+        <v>3.05</v>
+      </c>
+      <c r="G71" s="25" t="s">
         <v>154</v>
       </c>
-      <c r="H71" s="1"/>
-      <c r="I71" s="1"/>
+      <c r="H71" s="26"/>
+      <c r="I71" s="26"/>
     </row>
     <row r="72" spans="1:9" ht="22.5" x14ac:dyDescent="0.25">
-      <c r="A72" s="4">
+      <c r="A72" s="21">
         <v>71</v>
       </c>
-      <c r="B72" s="5" t="s">
+      <c r="B72" s="22" t="s">
         <v>155</v>
       </c>
-      <c r="C72" s="5">
+      <c r="C72" s="22">
         <v>60</v>
       </c>
-      <c r="D72" s="6" t="s">
+      <c r="D72" s="23" t="s">
         <v>153</v>
       </c>
-      <c r="E72" s="7">
-        <v>10</v>
-      </c>
-      <c r="F72" s="7">
-        <v>3.05</v>
-      </c>
-      <c r="G72" s="8" t="s">
+      <c r="E72" s="24">
+        <v>10</v>
+      </c>
+      <c r="F72" s="24">
+        <v>3.05</v>
+      </c>
+      <c r="G72" s="25" t="s">
         <v>156</v>
       </c>
-      <c r="H72" s="1"/>
-      <c r="I72" s="1"/>
+      <c r="H72" s="26"/>
+      <c r="I72" s="26"/>
     </row>
     <row r="73" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A73" s="4">
@@ -3360,10 +3419,10 @@
       <c r="G73" s="8" t="s">
         <v>159</v>
       </c>
-      <c r="H73" s="21">
+      <c r="H73" s="17">
         <v>20.046166666666601</v>
       </c>
-      <c r="I73" s="21">
+      <c r="I73" s="17">
         <v>-100.75083333333301</v>
       </c>
     </row>
@@ -3389,10 +3448,10 @@
       <c r="G74" s="8" t="s">
         <v>161</v>
       </c>
-      <c r="H74" s="21">
+      <c r="H74" s="17">
         <v>20.032333333333298</v>
       </c>
-      <c r="I74" s="21">
+      <c r="I74" s="17">
         <v>-100.69116666666601</v>
       </c>
     </row>
@@ -3418,10 +3477,10 @@
       <c r="G75" s="8" t="s">
         <v>163</v>
       </c>
-      <c r="H75" s="21">
+      <c r="H75" s="17">
         <v>20.05</v>
       </c>
-      <c r="I75" s="21">
+      <c r="I75" s="17">
         <v>-100.701333333333</v>
       </c>
     </row>
@@ -3447,10 +3506,10 @@
       <c r="G76" s="8" t="s">
         <v>165</v>
       </c>
-      <c r="H76" s="21">
+      <c r="H76" s="17">
         <v>20.042999999999999</v>
       </c>
-      <c r="I76" s="21">
+      <c r="I76" s="17">
         <v>-100.7135</v>
       </c>
     </row>
@@ -3476,10 +3535,10 @@
       <c r="G77" s="8" t="s">
         <v>168</v>
       </c>
-      <c r="H77" s="21">
+      <c r="H77" s="17">
         <v>20.287666666666599</v>
       </c>
-      <c r="I77" s="21">
+      <c r="I77" s="17">
         <v>-100.764166666666</v>
       </c>
     </row>
@@ -3505,10 +3564,10 @@
       <c r="G78" s="8" t="s">
         <v>168</v>
       </c>
-      <c r="H78" s="21">
+      <c r="H78" s="17">
         <v>20.287666666666599</v>
       </c>
-      <c r="I78" s="21">
+      <c r="I78" s="17">
         <v>-100.763833333333</v>
       </c>
     </row>
@@ -3592,10 +3651,10 @@
       <c r="G81" s="8" t="s">
         <v>177</v>
       </c>
-      <c r="H81" s="21">
+      <c r="H81" s="17">
         <v>20.1808333333333</v>
       </c>
-      <c r="I81" s="21">
+      <c r="I81" s="17">
         <v>-100.89</v>
       </c>
     </row>
@@ -3646,10 +3705,10 @@
       <c r="G83" s="8" t="s">
         <v>182</v>
       </c>
-      <c r="H83" s="21">
+      <c r="H83" s="17">
         <v>20.1793333333333</v>
       </c>
-      <c r="I83" s="21">
+      <c r="I83" s="17">
         <v>-100.999666666666</v>
       </c>
     </row>
@@ -3675,10 +3734,10 @@
       <c r="G84" s="8" t="s">
         <v>182</v>
       </c>
-      <c r="H84" s="21">
+      <c r="H84" s="17">
         <v>20.179666666666598</v>
       </c>
-      <c r="I84" s="21">
+      <c r="I84" s="17">
         <v>-100.999666666666</v>
       </c>
     </row>
@@ -3704,10 +3763,10 @@
       <c r="G85" s="8" t="s">
         <v>186</v>
       </c>
-      <c r="H85" s="21">
+      <c r="H85" s="17">
         <v>20.101500000000001</v>
       </c>
-      <c r="I85" s="21">
+      <c r="I85" s="17">
         <v>-101.16200000000001</v>
       </c>
     </row>
@@ -3733,35 +3792,37 @@
       <c r="G86" s="8" t="s">
         <v>186</v>
       </c>
-      <c r="H86" s="21">
+      <c r="H86" s="17">
         <v>20.101666666666599</v>
       </c>
-      <c r="I86" s="21">
+      <c r="I86" s="17">
         <v>-101.162166666666</v>
       </c>
     </row>
     <row r="87" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A87" s="4">
+      <c r="A87" s="21">
         <v>86</v>
       </c>
-      <c r="B87" s="5" t="s">
+      <c r="B87" s="22" t="s">
         <v>188</v>
       </c>
-      <c r="C87" s="5">
+      <c r="C87" s="22">
         <v>67</v>
       </c>
-      <c r="D87" s="6" t="s">
+      <c r="D87" s="23" t="s">
         <v>189</v>
       </c>
-      <c r="E87" s="7">
-        <v>10</v>
-      </c>
-      <c r="F87" s="7">
-        <v>3.05</v>
-      </c>
-      <c r="G87" s="8" t="s">
+      <c r="E87" s="24">
+        <v>10</v>
+      </c>
+      <c r="F87" s="24">
+        <v>3.05</v>
+      </c>
+      <c r="G87" s="25" t="s">
         <v>190</v>
       </c>
+      <c r="H87" s="30"/>
+      <c r="I87" s="30"/>
     </row>
     <row r="88" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A88" s="4">
@@ -3785,566 +3846,596 @@
       <c r="G88" s="8" t="s">
         <v>192</v>
       </c>
-      <c r="H88" s="21">
+      <c r="H88" s="17">
         <v>20.130666666666599</v>
       </c>
-      <c r="I88" s="21">
+      <c r="I88" s="17">
         <v>-101.205166666666</v>
       </c>
     </row>
     <row r="89" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A89" s="4">
+      <c r="A89" s="21">
         <v>88</v>
       </c>
-      <c r="B89" s="5" t="s">
+      <c r="B89" s="22" t="s">
         <v>193</v>
       </c>
-      <c r="C89" s="5">
+      <c r="C89" s="22">
         <v>68</v>
       </c>
-      <c r="D89" s="6" t="s">
+      <c r="D89" s="23" t="s">
         <v>194</v>
       </c>
-      <c r="E89" s="7">
-        <v>10</v>
-      </c>
-      <c r="F89" s="7">
-        <v>3.05</v>
-      </c>
-      <c r="G89" s="8" t="s">
+      <c r="E89" s="24">
+        <v>10</v>
+      </c>
+      <c r="F89" s="24">
+        <v>3.05</v>
+      </c>
+      <c r="G89" s="25" t="s">
         <v>195</v>
       </c>
-      <c r="H89" s="1"/>
-      <c r="I89" s="1"/>
+      <c r="H89" s="26"/>
+      <c r="I89" s="26"/>
     </row>
     <row r="90" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A90" s="4">
+      <c r="A90" s="21">
         <v>89</v>
       </c>
-      <c r="B90" s="5" t="s">
+      <c r="B90" s="22" t="s">
         <v>196</v>
       </c>
-      <c r="C90" s="5">
+      <c r="C90" s="22">
         <v>68</v>
       </c>
-      <c r="D90" s="6" t="s">
+      <c r="D90" s="23" t="s">
         <v>194</v>
       </c>
-      <c r="E90" s="7">
+      <c r="E90" s="24">
         <v>10.050000000000001</v>
       </c>
-      <c r="F90" s="7">
-        <v>3.05</v>
-      </c>
-      <c r="G90" s="8" t="s">
+      <c r="F90" s="24">
+        <v>3.05</v>
+      </c>
+      <c r="G90" s="25" t="s">
         <v>195</v>
       </c>
-      <c r="H90" s="1"/>
-      <c r="I90" s="1"/>
+      <c r="H90" s="26"/>
+      <c r="I90" s="26"/>
     </row>
     <row r="91" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A91" s="4">
+      <c r="A91" s="21">
         <v>90</v>
       </c>
-      <c r="B91" s="5" t="s">
+      <c r="B91" s="22" t="s">
         <v>197</v>
       </c>
-      <c r="C91" s="5">
+      <c r="C91" s="22">
         <v>69</v>
       </c>
-      <c r="D91" s="6" t="s">
+      <c r="D91" s="23" t="s">
         <v>198</v>
       </c>
-      <c r="E91" s="7">
-        <v>10</v>
-      </c>
-      <c r="F91" s="7">
-        <v>3.05</v>
-      </c>
-      <c r="G91" s="8" t="s">
+      <c r="E91" s="24">
+        <v>10</v>
+      </c>
+      <c r="F91" s="24">
+        <v>3.05</v>
+      </c>
+      <c r="G91" s="25" t="s">
         <v>199</v>
       </c>
-      <c r="H91" s="1"/>
-      <c r="I91" s="1"/>
+      <c r="H91" s="26"/>
+      <c r="I91" s="26"/>
     </row>
     <row r="92" spans="1:9" ht="33" x14ac:dyDescent="0.25">
-      <c r="A92" s="4">
+      <c r="A92" s="21">
         <v>91</v>
       </c>
-      <c r="B92" s="10" t="s">
+      <c r="B92" s="27" t="s">
         <v>200</v>
       </c>
-      <c r="C92" s="10">
+      <c r="C92" s="27">
         <v>69</v>
       </c>
-      <c r="D92" s="6" t="s">
+      <c r="D92" s="23" t="s">
         <v>198</v>
       </c>
-      <c r="E92" s="7">
+      <c r="E92" s="24">
         <v>10.050000000000001</v>
       </c>
-      <c r="F92" s="7">
-        <v>3.05</v>
-      </c>
-      <c r="G92" s="8" t="s">
+      <c r="F92" s="24">
+        <v>3.05</v>
+      </c>
+      <c r="G92" s="25" t="s">
         <v>199</v>
       </c>
-      <c r="H92" s="1"/>
-      <c r="I92" s="1"/>
+      <c r="H92" s="26"/>
+      <c r="I92" s="26"/>
     </row>
     <row r="93" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A93" s="4">
+      <c r="A93" s="21">
         <v>92</v>
       </c>
-      <c r="B93" s="5" t="s">
+      <c r="B93" s="22" t="s">
         <v>201</v>
       </c>
-      <c r="C93" s="5">
+      <c r="C93" s="22">
         <v>70</v>
       </c>
-      <c r="D93" s="6" t="s">
+      <c r="D93" s="23" t="s">
         <v>202</v>
       </c>
-      <c r="E93" s="7">
-        <v>10</v>
-      </c>
-      <c r="F93" s="7">
-        <v>3.05</v>
-      </c>
-      <c r="G93" s="8" t="s">
+      <c r="E93" s="24">
+        <v>10</v>
+      </c>
+      <c r="F93" s="24">
+        <v>3.05</v>
+      </c>
+      <c r="G93" s="25" t="s">
         <v>203</v>
       </c>
-      <c r="H93" s="1"/>
-      <c r="I93" s="1"/>
+      <c r="H93" s="26"/>
+      <c r="I93" s="26"/>
     </row>
     <row r="94" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A94" s="4">
+      <c r="A94" s="21">
         <v>93</v>
       </c>
-      <c r="B94" s="5" t="s">
+      <c r="B94" s="22" t="s">
         <v>204</v>
       </c>
-      <c r="C94" s="5">
+      <c r="C94" s="22">
         <v>70</v>
       </c>
-      <c r="D94" s="6" t="s">
+      <c r="D94" s="23" t="s">
         <v>202</v>
       </c>
-      <c r="E94" s="7">
-        <v>10</v>
-      </c>
-      <c r="F94" s="7">
-        <v>3.05</v>
-      </c>
-      <c r="G94" s="8" t="s">
+      <c r="E94" s="24">
+        <v>10</v>
+      </c>
+      <c r="F94" s="24">
+        <v>3.05</v>
+      </c>
+      <c r="G94" s="25" t="s">
         <v>203</v>
       </c>
-      <c r="H94" s="1"/>
-      <c r="I94" s="1"/>
+      <c r="H94" s="26"/>
+      <c r="I94" s="26"/>
     </row>
     <row r="95" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A95" s="4">
+      <c r="A95" s="21">
         <v>94</v>
       </c>
-      <c r="B95" s="5" t="s">
+      <c r="B95" s="22" t="s">
         <v>205</v>
       </c>
-      <c r="C95" s="5">
+      <c r="C95" s="22">
         <v>71</v>
       </c>
-      <c r="D95" s="6" t="s">
+      <c r="D95" s="23" t="s">
         <v>206</v>
       </c>
-      <c r="E95" s="7">
-        <v>10</v>
-      </c>
-      <c r="F95" s="7">
-        <v>3.05</v>
-      </c>
-      <c r="G95" s="8" t="s">
+      <c r="E95" s="24">
+        <v>10</v>
+      </c>
+      <c r="F95" s="24">
+        <v>3.05</v>
+      </c>
+      <c r="G95" s="25" t="s">
         <v>207</v>
       </c>
-      <c r="H95" s="1"/>
-      <c r="I95" s="1"/>
+      <c r="H95" s="26"/>
+      <c r="I95" s="26"/>
     </row>
     <row r="96" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A96" s="4">
+      <c r="A96" s="21">
         <v>95</v>
       </c>
-      <c r="B96" s="5" t="s">
+      <c r="B96" s="22" t="s">
         <v>208</v>
       </c>
-      <c r="C96" s="5">
+      <c r="C96" s="22">
         <v>71</v>
       </c>
-      <c r="D96" s="6" t="s">
+      <c r="D96" s="23" t="s">
         <v>206</v>
       </c>
-      <c r="E96" s="7">
-        <v>10</v>
-      </c>
-      <c r="F96" s="7">
-        <v>3.05</v>
-      </c>
-      <c r="G96" s="8" t="s">
+      <c r="E96" s="24">
+        <v>10</v>
+      </c>
+      <c r="F96" s="24">
+        <v>3.05</v>
+      </c>
+      <c r="G96" s="25" t="s">
         <v>207</v>
       </c>
-      <c r="H96" s="1"/>
-      <c r="I96" s="1"/>
+      <c r="H96" s="26"/>
+      <c r="I96" s="26"/>
     </row>
     <row r="97" spans="1:9" ht="22.5" x14ac:dyDescent="0.25">
-      <c r="A97" s="4">
+      <c r="A97" s="21">
         <v>96</v>
       </c>
-      <c r="B97" s="5" t="s">
+      <c r="B97" s="22" t="s">
         <v>209</v>
       </c>
-      <c r="C97" s="5">
+      <c r="C97" s="22">
         <v>72</v>
       </c>
-      <c r="D97" s="6" t="s">
+      <c r="D97" s="23" t="s">
         <v>210</v>
       </c>
-      <c r="E97" s="7">
+      <c r="E97" s="24">
         <v>12.65</v>
       </c>
-      <c r="F97" s="7">
+      <c r="F97" s="24">
         <v>3.6</v>
       </c>
-      <c r="G97" s="8" t="s">
+      <c r="G97" s="25" t="s">
         <v>211</v>
       </c>
+      <c r="H97" s="30"/>
+      <c r="I97" s="30"/>
     </row>
     <row r="98" spans="1:9" ht="33" x14ac:dyDescent="0.25">
-      <c r="A98" s="4">
+      <c r="A98" s="21">
         <v>97</v>
       </c>
-      <c r="B98" s="10" t="s">
+      <c r="B98" s="27" t="s">
         <v>212</v>
       </c>
-      <c r="C98" s="10">
+      <c r="C98" s="27">
         <v>72</v>
       </c>
-      <c r="D98" s="6" t="s">
+      <c r="D98" s="23" t="s">
         <v>210</v>
       </c>
-      <c r="E98" s="7">
-        <v>10</v>
-      </c>
-      <c r="F98" s="7">
-        <v>3.05</v>
-      </c>
-      <c r="G98" s="8" t="s">
+      <c r="E98" s="24">
+        <v>10</v>
+      </c>
+      <c r="F98" s="24">
+        <v>3.05</v>
+      </c>
+      <c r="G98" s="25" t="s">
         <v>213</v>
       </c>
+      <c r="H98" s="30"/>
+      <c r="I98" s="30"/>
     </row>
     <row r="99" spans="1:9" ht="33" x14ac:dyDescent="0.25">
-      <c r="A99" s="4">
+      <c r="A99" s="21">
         <v>98</v>
       </c>
-      <c r="B99" s="10" t="s">
+      <c r="B99" s="27" t="s">
         <v>214</v>
       </c>
-      <c r="C99" s="10">
+      <c r="C99" s="27">
         <v>72</v>
       </c>
-      <c r="D99" s="6" t="s">
+      <c r="D99" s="23" t="s">
         <v>210</v>
       </c>
-      <c r="E99" s="7">
-        <v>10</v>
-      </c>
-      <c r="F99" s="7">
-        <v>3.05</v>
-      </c>
-      <c r="G99" s="8" t="s">
+      <c r="E99" s="24">
+        <v>10</v>
+      </c>
+      <c r="F99" s="24">
+        <v>3.05</v>
+      </c>
+      <c r="G99" s="25" t="s">
         <v>213</v>
       </c>
+      <c r="H99" s="30"/>
+      <c r="I99" s="30"/>
     </row>
     <row r="100" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A100" s="4">
+      <c r="A100" s="21">
         <v>99</v>
       </c>
-      <c r="B100" s="5" t="s">
+      <c r="B100" s="22" t="s">
         <v>215</v>
       </c>
-      <c r="C100" s="5">
+      <c r="C100" s="22">
         <v>73</v>
       </c>
-      <c r="D100" s="6" t="s">
+      <c r="D100" s="23" t="s">
         <v>216</v>
       </c>
-      <c r="E100" s="7">
+      <c r="E100" s="24">
         <v>12</v>
       </c>
-      <c r="F100" s="7">
+      <c r="F100" s="24">
         <v>3.6</v>
       </c>
-      <c r="G100" s="8" t="s">
+      <c r="G100" s="25" t="s">
         <v>217</v>
       </c>
+      <c r="H100" s="30"/>
+      <c r="I100" s="30"/>
     </row>
     <row r="101" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A101" s="4">
+      <c r="A101" s="21">
         <v>100</v>
       </c>
-      <c r="B101" s="5" t="s">
+      <c r="B101" s="22" t="s">
         <v>218</v>
       </c>
-      <c r="C101" s="5">
+      <c r="C101" s="22">
         <v>74</v>
       </c>
-      <c r="D101" s="6" t="s">
+      <c r="D101" s="23" t="s">
         <v>219</v>
       </c>
-      <c r="E101" s="7">
-        <v>10</v>
-      </c>
-      <c r="F101" s="7">
-        <v>3.05</v>
-      </c>
-      <c r="G101" s="8" t="s">
+      <c r="E101" s="24">
+        <v>10</v>
+      </c>
+      <c r="F101" s="24">
+        <v>3.05</v>
+      </c>
+      <c r="G101" s="25" t="s">
         <v>220</v>
       </c>
+      <c r="H101" s="30"/>
+      <c r="I101" s="30"/>
     </row>
     <row r="102" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A102" s="4">
+      <c r="A102" s="21">
         <v>101</v>
       </c>
-      <c r="B102" s="5" t="s">
+      <c r="B102" s="22" t="s">
         <v>221</v>
       </c>
-      <c r="C102" s="5">
+      <c r="C102" s="22">
         <v>74</v>
       </c>
-      <c r="D102" s="6" t="s">
+      <c r="D102" s="23" t="s">
         <v>219</v>
       </c>
-      <c r="E102" s="7">
-        <v>10</v>
-      </c>
-      <c r="F102" s="7">
-        <v>3.05</v>
-      </c>
-      <c r="G102" s="8" t="s">
+      <c r="E102" s="24">
+        <v>10</v>
+      </c>
+      <c r="F102" s="24">
+        <v>3.05</v>
+      </c>
+      <c r="G102" s="25" t="s">
         <v>220</v>
       </c>
+      <c r="H102" s="30"/>
+      <c r="I102" s="30"/>
     </row>
     <row r="103" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A103" s="4">
+      <c r="A103" s="21">
         <v>102</v>
       </c>
-      <c r="B103" s="5" t="s">
+      <c r="B103" s="22" t="s">
         <v>222</v>
       </c>
-      <c r="C103" s="5">
+      <c r="C103" s="22">
         <v>75</v>
       </c>
-      <c r="D103" s="6" t="s">
+      <c r="D103" s="23" t="s">
         <v>223</v>
       </c>
-      <c r="E103" s="7">
-        <v>10</v>
-      </c>
-      <c r="F103" s="7">
-        <v>3.05</v>
-      </c>
-      <c r="G103" s="8" t="s">
+      <c r="E103" s="24">
+        <v>10</v>
+      </c>
+      <c r="F103" s="24">
+        <v>3.05</v>
+      </c>
+      <c r="G103" s="25" t="s">
         <v>224</v>
       </c>
+      <c r="H103" s="30"/>
+      <c r="I103" s="30"/>
     </row>
     <row r="104" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A104" s="4">
+      <c r="A104" s="21">
         <v>103</v>
       </c>
-      <c r="B104" s="5" t="s">
+      <c r="B104" s="22" t="s">
         <v>225</v>
       </c>
-      <c r="C104" s="5">
+      <c r="C104" s="22">
         <v>75</v>
       </c>
-      <c r="D104" s="6" t="s">
+      <c r="D104" s="23" t="s">
         <v>223</v>
       </c>
-      <c r="E104" s="7">
+      <c r="E104" s="24">
         <v>12.7</v>
       </c>
-      <c r="F104" s="7">
+      <c r="F104" s="24">
         <v>3.65</v>
       </c>
-      <c r="G104" s="8" t="s">
+      <c r="G104" s="25" t="s">
         <v>226</v>
       </c>
+      <c r="H104" s="30"/>
+      <c r="I104" s="30"/>
     </row>
     <row r="105" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A105" s="4">
+      <c r="A105" s="21">
         <v>104</v>
       </c>
-      <c r="B105" s="5" t="s">
+      <c r="B105" s="22" t="s">
         <v>227</v>
       </c>
-      <c r="C105" s="5">
+      <c r="C105" s="22">
         <v>75</v>
       </c>
-      <c r="D105" s="6" t="s">
+      <c r="D105" s="23" t="s">
         <v>223</v>
       </c>
-      <c r="E105" s="7">
+      <c r="E105" s="24">
         <v>12.7</v>
       </c>
-      <c r="F105" s="7">
+      <c r="F105" s="24">
         <v>3.65</v>
       </c>
-      <c r="G105" s="8" t="s">
+      <c r="G105" s="25" t="s">
         <v>228</v>
       </c>
+      <c r="H105" s="30"/>
+      <c r="I105" s="30"/>
     </row>
     <row r="106" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A106" s="4">
+      <c r="A106" s="21">
         <v>105</v>
       </c>
-      <c r="B106" s="5" t="s">
+      <c r="B106" s="22" t="s">
         <v>229</v>
       </c>
-      <c r="C106" s="5">
+      <c r="C106" s="22">
         <v>75</v>
       </c>
-      <c r="D106" s="6" t="s">
+      <c r="D106" s="23" t="s">
         <v>223</v>
       </c>
-      <c r="E106" s="7">
+      <c r="E106" s="24">
         <v>12.7</v>
       </c>
-      <c r="F106" s="7">
+      <c r="F106" s="24">
         <v>3.6</v>
       </c>
-      <c r="G106" s="8" t="s">
+      <c r="G106" s="25" t="s">
         <v>230</v>
       </c>
+      <c r="H106" s="30"/>
+      <c r="I106" s="30"/>
     </row>
     <row r="107" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A107" s="4">
+      <c r="A107" s="21">
         <v>106</v>
       </c>
-      <c r="B107" s="5" t="s">
+      <c r="B107" s="22" t="s">
         <v>231</v>
       </c>
-      <c r="C107" s="5">
+      <c r="C107" s="22">
         <v>75</v>
       </c>
-      <c r="D107" s="6" t="s">
+      <c r="D107" s="23" t="s">
         <v>223</v>
       </c>
-      <c r="E107" s="7">
+      <c r="E107" s="24">
         <v>12.7</v>
       </c>
-      <c r="F107" s="7">
+      <c r="F107" s="24">
         <v>3.65</v>
       </c>
-      <c r="G107" s="8" t="s">
+      <c r="G107" s="25" t="s">
         <v>230</v>
       </c>
+      <c r="H107" s="30"/>
+      <c r="I107" s="30"/>
     </row>
     <row r="108" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A108" s="4">
+      <c r="A108" s="21">
         <v>107</v>
       </c>
-      <c r="B108" s="5" t="s">
+      <c r="B108" s="22" t="s">
         <v>232</v>
       </c>
-      <c r="C108" s="5">
+      <c r="C108" s="22">
         <v>75</v>
       </c>
-      <c r="D108" s="6" t="s">
+      <c r="D108" s="23" t="s">
         <v>223</v>
       </c>
-      <c r="E108" s="7">
-        <v>10</v>
-      </c>
-      <c r="F108" s="7">
-        <v>3.05</v>
-      </c>
-      <c r="G108" s="8" t="s">
+      <c r="E108" s="24">
+        <v>10</v>
+      </c>
+      <c r="F108" s="24">
+        <v>3.05</v>
+      </c>
+      <c r="G108" s="25" t="s">
         <v>233</v>
       </c>
+      <c r="H108" s="30"/>
+      <c r="I108" s="30"/>
     </row>
     <row r="109" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A109" s="4">
+      <c r="A109" s="21">
         <v>108</v>
       </c>
-      <c r="B109" s="5" t="s">
+      <c r="B109" s="22" t="s">
         <v>234</v>
       </c>
-      <c r="C109" s="5">
+      <c r="C109" s="22">
         <v>75</v>
       </c>
-      <c r="D109" s="6" t="s">
+      <c r="D109" s="23" t="s">
         <v>223</v>
       </c>
-      <c r="E109" s="7">
-        <v>10</v>
-      </c>
-      <c r="F109" s="7">
-        <v>3.05</v>
-      </c>
-      <c r="G109" s="8" t="s">
+      <c r="E109" s="24">
+        <v>10</v>
+      </c>
+      <c r="F109" s="24">
+        <v>3.05</v>
+      </c>
+      <c r="G109" s="25" t="s">
         <v>233</v>
       </c>
+      <c r="H109" s="30"/>
+      <c r="I109" s="30"/>
     </row>
     <row r="110" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A110" s="4">
+      <c r="A110" s="21">
         <v>109</v>
       </c>
-      <c r="B110" s="14" t="s">
+      <c r="B110" s="28" t="s">
         <v>235</v>
       </c>
-      <c r="C110" s="14">
+      <c r="C110" s="28">
         <v>76</v>
       </c>
-      <c r="D110" s="6" t="s">
+      <c r="D110" s="23" t="s">
         <v>236</v>
       </c>
-      <c r="E110" s="7">
+      <c r="E110" s="24">
         <v>6.1</v>
       </c>
-      <c r="F110" s="7">
+      <c r="F110" s="24">
         <v>0.5</v>
       </c>
-      <c r="G110" s="8" t="s">
+      <c r="G110" s="25" t="s">
         <v>237</v>
       </c>
+      <c r="H110" s="30"/>
+      <c r="I110" s="30"/>
     </row>
     <row r="111" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A111" s="4">
+      <c r="A111" s="21">
         <v>110</v>
       </c>
-      <c r="B111" s="14" t="s">
+      <c r="B111" s="28" t="s">
         <v>238</v>
       </c>
-      <c r="C111" s="14">
+      <c r="C111" s="28">
         <v>76</v>
       </c>
-      <c r="D111" s="6" t="s">
+      <c r="D111" s="23" t="s">
         <v>236</v>
       </c>
-      <c r="E111" s="7">
-        <v>10</v>
-      </c>
-      <c r="F111" s="7">
-        <v>3.05</v>
-      </c>
-      <c r="G111" s="8" t="s">
+      <c r="E111" s="24">
+        <v>10</v>
+      </c>
+      <c r="F111" s="24">
+        <v>3.05</v>
+      </c>
+      <c r="G111" s="25" t="s">
         <v>237</v>
       </c>
+      <c r="H111" s="30"/>
+      <c r="I111" s="30"/>
     </row>
     <row r="112" spans="1:9" ht="22.5" x14ac:dyDescent="0.25">
       <c r="A112" s="4">
         <v>111</v>
       </c>
-      <c r="B112" s="17" t="s">
+      <c r="B112" s="16" t="s">
         <v>239</v>
       </c>
-      <c r="C112" s="17">
+      <c r="C112" s="16">
         <v>42</v>
       </c>
       <c r="D112" s="6" t="s">
@@ -4370,10 +4461,10 @@
       <c r="A113" s="4">
         <v>112</v>
       </c>
-      <c r="B113" s="17" t="s">
+      <c r="B113" s="16" t="s">
         <v>241</v>
       </c>
-      <c r="C113" s="17">
+      <c r="C113" s="16">
         <v>42</v>
       </c>
       <c r="D113" s="6" t="s">
@@ -4399,10 +4490,10 @@
       <c r="A114" s="4">
         <v>113</v>
       </c>
-      <c r="B114" s="17" t="s">
+      <c r="B114" s="16" t="s">
         <v>243</v>
       </c>
-      <c r="C114" s="17">
+      <c r="C114" s="16">
         <v>42</v>
       </c>
       <c r="D114" s="6" t="s">
@@ -4417,7 +4508,7 @@
       <c r="G114" s="8" t="s">
         <v>244</v>
       </c>
-      <c r="H114" s="24">
+      <c r="H114" s="20">
         <v>20.951833333333301</v>
       </c>
       <c r="I114" s="1">
@@ -4428,10 +4519,10 @@
       <c r="A115" s="4">
         <v>114</v>
       </c>
-      <c r="B115" s="17" t="s">
+      <c r="B115" s="16" t="s">
         <v>245</v>
       </c>
-      <c r="C115" s="17">
+      <c r="C115" s="16">
         <v>42</v>
       </c>
       <c r="D115" s="6" t="s">
@@ -4446,7 +4537,7 @@
       <c r="G115" s="8" t="s">
         <v>246</v>
       </c>
-      <c r="H115" s="24">
+      <c r="H115" s="20">
         <v>20.951833333333301</v>
       </c>
       <c r="I115" s="1">
@@ -4457,10 +4548,10 @@
       <c r="A116" s="4">
         <v>115</v>
       </c>
-      <c r="B116" s="17" t="s">
+      <c r="B116" s="16" t="s">
         <v>247</v>
       </c>
-      <c r="C116" s="17">
+      <c r="C116" s="16">
         <v>42</v>
       </c>
       <c r="D116" s="6" t="s">
@@ -4475,10 +4566,10 @@
       <c r="G116" s="8" t="s">
         <v>248</v>
       </c>
-      <c r="H116" s="21">
+      <c r="H116" s="17">
         <v>20.950333333333301</v>
       </c>
-      <c r="I116" s="21">
+      <c r="I116" s="17">
         <v>101.392666666666</v>
       </c>
     </row>
@@ -4486,10 +4577,10 @@
       <c r="A117" s="4">
         <v>116</v>
       </c>
-      <c r="B117" s="17" t="s">
+      <c r="B117" s="16" t="s">
         <v>249</v>
       </c>
-      <c r="C117" s="17">
+      <c r="C117" s="16">
         <v>42</v>
       </c>
       <c r="D117" s="6" t="s">
@@ -4504,10 +4595,10 @@
       <c r="G117" s="8" t="s">
         <v>250</v>
       </c>
-      <c r="H117" s="21">
+      <c r="H117" s="17">
         <v>20.950333333333301</v>
       </c>
-      <c r="I117" s="21">
+      <c r="I117" s="17">
         <v>-101.392666666666</v>
       </c>
     </row>
@@ -4515,10 +4606,10 @@
       <c r="A118" s="4">
         <v>117</v>
       </c>
-      <c r="B118" s="17" t="s">
+      <c r="B118" s="16" t="s">
         <v>251</v>
       </c>
-      <c r="C118" s="17">
+      <c r="C118" s="16">
         <v>42</v>
       </c>
       <c r="D118" s="6" t="s">
@@ -4533,10 +4624,10 @@
       <c r="G118" s="8" t="s">
         <v>252</v>
       </c>
-      <c r="H118" s="21">
+      <c r="H118" s="17">
         <v>20.9501666666666</v>
       </c>
-      <c r="I118" s="21">
+      <c r="I118" s="17">
         <v>-101.393333333333</v>
       </c>
     </row>
@@ -4544,10 +4635,10 @@
       <c r="A119" s="4">
         <v>118</v>
       </c>
-      <c r="B119" s="17" t="s">
+      <c r="B119" s="16" t="s">
         <v>253</v>
       </c>
-      <c r="C119" s="17">
+      <c r="C119" s="16">
         <v>42</v>
       </c>
       <c r="D119" s="6" t="s">
@@ -4562,10 +4653,10 @@
       <c r="G119" s="8" t="s">
         <v>254</v>
       </c>
-      <c r="H119" s="21">
+      <c r="H119" s="17">
         <v>20.9501666666666</v>
       </c>
-      <c r="I119" s="21">
+      <c r="I119" s="17">
         <v>101.393333333333</v>
       </c>
     </row>
@@ -4573,10 +4664,10 @@
       <c r="A120" s="4">
         <v>119</v>
       </c>
-      <c r="B120" s="17" t="s">
+      <c r="B120" s="16" t="s">
         <v>255</v>
       </c>
-      <c r="C120" s="17">
+      <c r="C120" s="16">
         <v>42</v>
       </c>
       <c r="D120" s="6" t="s">
@@ -4591,10 +4682,10 @@
       <c r="G120" s="8" t="s">
         <v>256</v>
       </c>
-      <c r="H120" s="23">
+      <c r="H120" s="19">
         <v>20.947500000000002</v>
       </c>
-      <c r="I120" s="21">
+      <c r="I120" s="17">
         <v>-101.4055</v>
       </c>
     </row>
@@ -4602,10 +4693,10 @@
       <c r="A121" s="4">
         <v>120</v>
       </c>
-      <c r="B121" s="17" t="s">
+      <c r="B121" s="16" t="s">
         <v>257</v>
       </c>
-      <c r="C121" s="17">
+      <c r="C121" s="16">
         <v>42</v>
       </c>
       <c r="D121" s="6" t="s">
@@ -4620,10 +4711,10 @@
       <c r="G121" s="8" t="s">
         <v>258</v>
       </c>
-      <c r="H121" s="21">
+      <c r="H121" s="17">
         <v>20.947666666666599</v>
       </c>
-      <c r="I121" s="21">
+      <c r="I121" s="17">
         <v>-101.404666666666</v>
       </c>
     </row>
@@ -4649,10 +4740,10 @@
       <c r="G122" s="8" t="s">
         <v>260</v>
       </c>
-      <c r="H122" s="21">
+      <c r="H122" s="17">
         <v>21.006833333333301</v>
       </c>
-      <c r="I122" s="21">
+      <c r="I122" s="17">
         <v>-101.516833333333</v>
       </c>
     </row>
@@ -4678,160 +4769,162 @@
       <c r="G123" s="8" t="s">
         <v>261</v>
       </c>
-      <c r="H123" s="23">
+      <c r="H123" s="19">
         <v>21.0081666666666</v>
       </c>
-      <c r="I123" s="21">
+      <c r="I123" s="17">
         <v>-101.5185</v>
       </c>
     </row>
     <row r="124" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A124" s="4">
+      <c r="A124" s="21">
         <v>123</v>
       </c>
-      <c r="B124" s="14" t="s">
+      <c r="B124" s="28" t="s">
         <v>259</v>
       </c>
-      <c r="C124" s="14">
+      <c r="C124" s="28">
         <v>41</v>
       </c>
-      <c r="D124" s="6" t="s">
+      <c r="D124" s="23" t="s">
         <v>25</v>
       </c>
-      <c r="E124" s="7">
+      <c r="E124" s="24">
         <v>8</v>
       </c>
-      <c r="F124" s="7">
+      <c r="F124" s="24">
         <v>12</v>
       </c>
-      <c r="G124" s="8" t="s">
+      <c r="G124" s="25" t="s">
         <v>262</v>
       </c>
-      <c r="H124" s="1"/>
-      <c r="I124" s="1"/>
+      <c r="H124" s="26"/>
+      <c r="I124" s="26"/>
     </row>
     <row r="125" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A125" s="4">
+      <c r="A125" s="21">
         <v>124</v>
       </c>
-      <c r="B125" s="14" t="s">
+      <c r="B125" s="28" t="s">
         <v>259</v>
       </c>
-      <c r="C125" s="14">
+      <c r="C125" s="28">
         <v>41</v>
       </c>
-      <c r="D125" s="6" t="s">
+      <c r="D125" s="23" t="s">
         <v>25</v>
       </c>
-      <c r="E125" s="7">
+      <c r="E125" s="24">
         <v>8</v>
       </c>
-      <c r="F125" s="7">
+      <c r="F125" s="24">
         <v>12</v>
       </c>
-      <c r="G125" s="8" t="s">
+      <c r="G125" s="25" t="s">
         <v>263</v>
       </c>
-      <c r="H125" s="1"/>
-      <c r="I125" s="1"/>
+      <c r="H125" s="26"/>
+      <c r="I125" s="26"/>
     </row>
     <row r="126" spans="1:9" ht="22.5" x14ac:dyDescent="0.25">
-      <c r="A126" s="4">
+      <c r="A126" s="21">
         <v>125</v>
       </c>
-      <c r="B126" s="17" t="s">
+      <c r="B126" s="31" t="s">
         <v>264</v>
       </c>
-      <c r="C126" s="17">
+      <c r="C126" s="31">
         <v>77</v>
       </c>
-      <c r="D126" s="6" t="s">
+      <c r="D126" s="23" t="s">
         <v>265</v>
       </c>
-      <c r="E126" s="7">
+      <c r="E126" s="24">
         <v>12.75</v>
       </c>
-      <c r="F126" s="7">
+      <c r="F126" s="24">
         <v>3.6</v>
       </c>
-      <c r="G126" s="8" t="s">
+      <c r="G126" s="25" t="s">
         <v>266</v>
       </c>
-      <c r="H126" s="1"/>
-      <c r="I126" s="1"/>
+      <c r="H126" s="26"/>
+      <c r="I126" s="26"/>
     </row>
     <row r="127" spans="1:9" ht="33" x14ac:dyDescent="0.25">
-      <c r="A127" s="4">
+      <c r="A127" s="21">
         <v>126</v>
       </c>
-      <c r="B127" s="17" t="s">
+      <c r="B127" s="31" t="s">
         <v>267</v>
       </c>
-      <c r="C127" s="17">
+      <c r="C127" s="31">
         <v>46</v>
       </c>
-      <c r="D127" s="6" t="s">
+      <c r="D127" s="23" t="s">
         <v>80</v>
       </c>
-      <c r="E127" s="7">
+      <c r="E127" s="24">
         <v>14</v>
       </c>
-      <c r="F127" s="7">
-        <v>10</v>
-      </c>
-      <c r="G127" s="8" t="s">
+      <c r="F127" s="24">
+        <v>10</v>
+      </c>
+      <c r="G127" s="25" t="s">
         <v>268</v>
       </c>
-      <c r="H127" s="1"/>
-      <c r="I127" s="1"/>
+      <c r="H127" s="26"/>
+      <c r="I127" s="26"/>
     </row>
     <row r="128" spans="1:9" ht="34.5" x14ac:dyDescent="0.25">
-      <c r="A128" s="4">
+      <c r="A128" s="21">
         <v>127</v>
       </c>
-      <c r="B128" s="18" t="s">
+      <c r="B128" s="32" t="s">
         <v>259</v>
       </c>
-      <c r="C128" s="18">
+      <c r="C128" s="32">
         <v>72</v>
       </c>
-      <c r="D128" s="19" t="s">
+      <c r="D128" s="33" t="s">
         <v>269</v>
       </c>
-      <c r="E128" s="18">
-        <v>10</v>
-      </c>
-      <c r="F128" s="18">
-        <v>3.05</v>
-      </c>
-      <c r="G128" s="20" t="s">
+      <c r="E128" s="32">
+        <v>10</v>
+      </c>
+      <c r="F128" s="32">
+        <v>3.05</v>
+      </c>
+      <c r="G128" s="34" t="s">
         <v>270</v>
       </c>
-      <c r="H128" s="1"/>
-      <c r="I128" s="1"/>
-    </row>
-    <row r="129" spans="1:7" ht="34.5" x14ac:dyDescent="0.25">
-      <c r="A129" s="4">
+      <c r="H128" s="26"/>
+      <c r="I128" s="26"/>
+    </row>
+    <row r="129" spans="1:9" ht="34.5" x14ac:dyDescent="0.25">
+      <c r="A129" s="21">
         <v>128</v>
       </c>
-      <c r="B129" s="18" t="s">
+      <c r="B129" s="32" t="s">
         <v>259</v>
       </c>
-      <c r="C129" s="18">
+      <c r="C129" s="32">
         <v>72</v>
       </c>
-      <c r="D129" s="19" t="s">
+      <c r="D129" s="33" t="s">
         <v>269</v>
       </c>
-      <c r="E129" s="18">
-        <v>10</v>
-      </c>
-      <c r="F129" s="18">
-        <v>3.05</v>
-      </c>
-      <c r="G129" s="20" t="s">
+      <c r="E129" s="32">
+        <v>10</v>
+      </c>
+      <c r="F129" s="32">
+        <v>3.05</v>
+      </c>
+      <c r="G129" s="34" t="s">
         <v>271</v>
       </c>
+      <c r="H129" s="30"/>
+      <c r="I129" s="30"/>
     </row>
   </sheetData>
   <hyperlinks>
